--- a/catalogo_bazar(9).xlsx
+++ b/catalogo_bazar(9).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yunior\Desktop\bazaelromero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bazaelromero\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Categoría</t>
   </si>
@@ -55,21 +55,6 @@
   </si>
   <si>
     <t>fgfd</t>
-  </si>
-  <si>
-    <t>Teflón 300</t>
-  </si>
-  <si>
-    <t>Plastilina Epósica 450</t>
-  </si>
-  <si>
-    <t>Llaves para Bebedero 180</t>
-  </si>
-  <si>
-    <t>Presillas Gas 110</t>
-  </si>
-  <si>
-    <t>Manquera plástica (m) 190</t>
   </si>
   <si>
     <t>Manquera plástica (m) </t>
@@ -563,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -663,452 +648,541 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>610</v>
       </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>210</v>
       </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>210</v>
       </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>150</v>
       </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>290</v>
       </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>350</v>
       </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>150</v>
       </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>80</v>
       </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>80</v>
       </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>720</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>280</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>270</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>310</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>450</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>810</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>260</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>260</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
       </c>
       <c r="C29">
         <v>320</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>450</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>210</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>210</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>210</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>300</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>450</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>190</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>16</v>
+      <c r="D44" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D2 A3:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>